--- a/QuantLibXL/Data2/XLS/JPY/JPY_YCSTDBootstrapping_LCH.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY/JPY_YCSTDBootstrapping_LCH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18525" yWindow="-30" windowWidth="18645" windowHeight="11715"/>
+    <workbookView xWindow="-15" yWindow="5835" windowWidth="6480" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="112">
   <si>
     <t>40Y</t>
   </si>
@@ -541,9 +541,6 @@
   </si>
   <si>
     <t>1W</t>
-  </si>
-  <si>
-    <t>JPYTonar</t>
   </si>
   <si>
     <t>1D</t>
@@ -581,7 +578,7 @@
     <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00000%"/>
     <numFmt numFmtId="178" formatCode="0.0000000"/>
-    <numFmt numFmtId="181" formatCode="0.E+00"/>
+    <numFmt numFmtId="179" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1697,7 +1694,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="20" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="20" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1707,7 +1704,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="20" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="20" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1715,10 +1712,10 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="20" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="20" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="20" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2396,7 +2393,7 @@
     <row r="1" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="66" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Aug 31 2015 19:54:36</v>
+        <v>QuantLibXL 1.7.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Sep  8 2015 18:12:04</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2540,9 +2537,7 @@
       <c r="C11" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="36">
-        <v>42250.792662037034</v>
-      </c>
+      <c r="D11" s="36"/>
       <c r="E11" s="17"/>
       <c r="G11" s="56"/>
       <c r="H11" s="55" t="s">
@@ -2592,7 +2587,7 @@
       </c>
       <c r="D14" s="120" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_JPYYCSTD_linearLCH#0010</v>
+        <v>_JPYYCSTD_linearLCH#0014</v>
       </c>
       <c r="E14" s="17"/>
       <c r="G14" s="56"/>
@@ -2726,7 +2721,7 @@
       </c>
       <c r="D23" s="69">
         <f>MAX(_xll.ohPack(Selected!K1:K126))</f>
-        <v>1.6560818601564855E-2</v>
+        <v>1.6560819302701736E-2</v>
       </c>
       <c r="E23" s="17"/>
     </row>
@@ -2738,7 +2733,7 @@
       </c>
       <c r="D24" s="70">
         <f>MIN(_xll.ohPack(Selected!K1:K126))</f>
-        <v>3.7139981105247525E-4</v>
+        <v>3.7655813906990564E-4</v>
       </c>
       <c r="E24" s="17"/>
     </row>
@@ -2880,7 +2875,7 @@
       <c r="A2" s="162"/>
       <c r="B2" s="75" t="str">
         <f>Deposits!G4</f>
-        <v>obj_00535#0039</v>
+        <v>obj_003fd#0023</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>_xll.qlRateHelperQuoteName(B2)</f>
@@ -2914,7 +2909,7 @@
       <c r="A3" s="162"/>
       <c r="B3" s="74" t="str">
         <f>Deposits!G5</f>
-        <v>obj_00536#0018</v>
+        <v>obj_003fe#0012</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B3)</f>
@@ -2948,7 +2943,7 @@
       <c r="A4" s="162"/>
       <c r="B4" s="74" t="str">
         <f>Deposits!G6</f>
-        <v>obj_00537#0007</v>
+        <v>obj_00401#0008</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B4)</f>
@@ -2982,7 +2977,7 @@
       <c r="A5" s="162"/>
       <c r="B5" s="74" t="str">
         <f>Deposits!G7</f>
-        <v>obj_00532#0012</v>
+        <v>obj_00406#0010</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B5)</f>
@@ -3016,7 +3011,7 @@
       <c r="A6" s="162"/>
       <c r="B6" s="74" t="str">
         <f>Deposits!G8</f>
-        <v>obj_00534#0012</v>
+        <v>obj_00405#0008</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B6)</f>
@@ -3050,7 +3045,7 @@
       <c r="A7" s="162"/>
       <c r="B7" s="74" t="str">
         <f>Deposits!G9</f>
-        <v>obj_00538#0005</v>
+        <v>obj_00400#0008</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B7)</f>
@@ -3084,7 +3079,7 @@
       <c r="A8" s="162"/>
       <c r="B8" s="76" t="str">
         <f>Deposits!G10</f>
-        <v>obj_00533#0015</v>
+        <v>obj_003ff#0008</v>
       </c>
       <c r="C8" s="154" t="str">
         <f>_xll.qlRateHelperQuoteName(B8)</f>
@@ -3118,7 +3113,7 @@
       <c r="A9" s="162"/>
       <c r="B9" s="74" t="str">
         <f>Swaps!M4</f>
-        <v>obj_004e6#0013</v>
+        <v>obj_00413#0008</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B9)</f>
@@ -3156,7 +3151,7 @@
       <c r="A10" s="162"/>
       <c r="B10" s="74" t="str">
         <f>Swaps!M5</f>
-        <v>obj_00539#0006</v>
+        <v>obj_00403#0008</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B10)</f>
@@ -3194,7 +3189,7 @@
       <c r="A11" s="162"/>
       <c r="B11" s="74" t="str">
         <f>Swaps!M6</f>
-        <v>obj_0053a#0006</v>
+        <v>obj_00404#0008</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B11)</f>
@@ -3232,7 +3227,7 @@
       <c r="A12" s="162"/>
       <c r="B12" s="74" t="str">
         <f>Swaps!M7</f>
-        <v>obj_004e4#0012</v>
+        <v>obj_00412#0008</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B12)</f>
@@ -3270,7 +3265,7 @@
       <c r="A13" s="162"/>
       <c r="B13" s="74" t="str">
         <f>Swaps!M8</f>
-        <v>obj_004db#0012</v>
+        <v>obj_0040b#0008</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B13)</f>
@@ -3308,7 +3303,7 @@
       <c r="A14" s="162"/>
       <c r="B14" s="74" t="str">
         <f>Swaps!M9</f>
-        <v>obj_004e1#0012</v>
+        <v>obj_0040f#0008</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B14)</f>
@@ -3346,7 +3341,7 @@
       <c r="A15" s="162"/>
       <c r="B15" s="74" t="str">
         <f>Swaps!M10</f>
-        <v>obj_004e5#0012</v>
+        <v>obj_00408#0008</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B15)</f>
@@ -3384,7 +3379,7 @@
       <c r="A16" s="162"/>
       <c r="B16" s="74" t="str">
         <f>Swaps!M11</f>
-        <v>obj_004e2#0012</v>
+        <v>obj_0040a#0008</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B16)</f>
@@ -3422,7 +3417,7 @@
       <c r="A17" s="162"/>
       <c r="B17" s="74" t="str">
         <f>Swaps!M12</f>
-        <v>obj_004df#0012</v>
+        <v>obj_00414#0008</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B17)</f>
@@ -3460,7 +3455,7 @@
       <c r="A18" s="162"/>
       <c r="B18" s="74" t="str">
         <f>Swaps!M13</f>
-        <v>obj_004d9#0012</v>
+        <v>obj_0040c#0008</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B18)</f>
@@ -3498,7 +3493,7 @@
       <c r="A19" s="162"/>
       <c r="B19" s="74" t="str">
         <f>Swaps!M14</f>
-        <v>obj_004e0#0012</v>
+        <v>obj_0040e#0008</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B19)</f>
@@ -3535,7 +3530,7 @@
       <c r="A20" s="162"/>
       <c r="B20" s="74" t="str">
         <f>Swaps!M15</f>
-        <v>obj_004de#0012</v>
+        <v>obj_00410#0008</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B20)</f>
@@ -3572,7 +3567,7 @@
       <c r="A21" s="162"/>
       <c r="B21" s="74" t="str">
         <f>Swaps!M16</f>
-        <v>obj_004dc#0012</v>
+        <v>obj_00409#0008</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B21)</f>
@@ -3610,7 +3605,7 @@
       <c r="A22" s="162"/>
       <c r="B22" s="74" t="str">
         <f>Swaps!M17</f>
-        <v>obj_004da#0012</v>
+        <v>obj_00411#0008</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B22)</f>
@@ -3648,7 +3643,7 @@
       <c r="A23" s="162"/>
       <c r="B23" s="74" t="str">
         <f>Swaps!M18</f>
-        <v>obj_004d7#0012</v>
+        <v>obj_0040d#0008</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B23)</f>
@@ -3686,7 +3681,7 @@
       <c r="A24" s="162"/>
       <c r="B24" s="76" t="str">
         <f>Swaps!M19</f>
-        <v>obj_004e3#0012</v>
+        <v>obj_00407#0008</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(B24)</f>
@@ -3851,7 +3846,7 @@
       </c>
       <c r="K1" s="211">
         <f t="array" ref="K1:K126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>3.7139981105247525E-4</v>
+        <v>3.7655813906990564E-4</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -3863,7 +3858,7 @@
       </c>
       <c r="D2" s="10" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_00535</v>
+        <v>obj_003fd</v>
       </c>
       <c r="E2" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -3890,7 +3885,7 @@
         <v>42249</v>
       </c>
       <c r="K2" s="211">
-        <v>3.7139981105247525E-4</v>
+        <v>3.7655813906990564E-4</v>
       </c>
       <c r="Q2" s="206"/>
     </row>
@@ -3902,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="10" t="str">
-        <v>obj_00536</v>
+        <v>obj_003fe</v>
       </c>
       <c r="E3" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -3929,7 +3924,7 @@
         <v>42250</v>
       </c>
       <c r="K3" s="211">
-        <v>3.7139981107053806E-4</v>
+        <v>3.7655813907247953E-4</v>
       </c>
       <c r="Q3" s="206"/>
     </row>
@@ -3941,7 +3936,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="10" t="str">
-        <v>obj_00537</v>
+        <v>obj_00401</v>
       </c>
       <c r="E4" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -3968,7 +3963,7 @@
         <v>42257</v>
       </c>
       <c r="K4" s="211">
-        <v>4.3739284996777839E-4</v>
+        <v>4.3853914507200063E-4</v>
       </c>
       <c r="Q4" s="206"/>
     </row>
@@ -3980,7 +3975,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="10" t="str">
-        <v>obj_00532</v>
+        <v>obj_00406</v>
       </c>
       <c r="E5" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -4007,7 +4002,7 @@
         <v>42282</v>
       </c>
       <c r="K5" s="211">
-        <v>5.6165177658819504E-4</v>
+        <v>5.6195520764428972E-4</v>
       </c>
       <c r="N5" s="207"/>
       <c r="Q5" s="206"/>
@@ -4021,7 +4016,7 @@
         <v/>
       </c>
       <c r="D6" s="10" t="str">
-        <v>obj_00534</v>
+        <v>obj_00405</v>
       </c>
       <c r="E6" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -4048,14 +4043,14 @@
         <v>42311</v>
       </c>
       <c r="K6" s="211">
-        <v>7.9012965370941698E-4</v>
+        <v>7.9029341015418619E-4</v>
       </c>
       <c r="N6" s="207"/>
       <c r="Q6" s="206"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="210" t="str">
-        <v>obj_00538</v>
+        <v>obj_00400</v>
       </c>
       <c r="E7" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -4082,14 +4077,14 @@
         <v>42341</v>
       </c>
       <c r="K7" s="211">
-        <v>8.9371968102732585E-4</v>
+        <v>8.9383061281198765E-4</v>
       </c>
       <c r="N7" s="207"/>
       <c r="Q7" s="204"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D8" s="210" t="str">
-        <v>obj_00533</v>
+        <v>obj_003ff</v>
       </c>
       <c r="E8" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -4116,14 +4111,14 @@
         <v>42432</v>
       </c>
       <c r="K8" s="211">
-        <v>1.3159565715789132E-3</v>
+        <v>1.3160126403614005E-3</v>
       </c>
       <c r="N8" s="207"/>
       <c r="Q8" s="206"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D9" s="210" t="str">
-        <v>obj_004e6</v>
+        <v>obj_00413</v>
       </c>
       <c r="E9" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -4150,7 +4145,7 @@
         <v>42618</v>
       </c>
       <c r="K9" s="211">
-        <v>1.2358210792944937E-3</v>
+        <v>1.235848962148708E-3</v>
       </c>
       <c r="N9" s="207"/>
       <c r="P9" s="205"/>
@@ -4158,7 +4153,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D10" s="210" t="str">
-        <v>obj_00539</v>
+        <v>obj_00403</v>
       </c>
       <c r="E10" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -4185,7 +4180,7 @@
         <v>42982</v>
       </c>
       <c r="K10" s="211">
-        <v>1.2023944138704215E-3</v>
+        <v>1.2024084959786018E-3</v>
       </c>
       <c r="N10" s="207"/>
       <c r="P10" s="205"/>
@@ -4193,7 +4188,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D11" s="210" t="str">
-        <v>obj_0053a</v>
+        <v>obj_00404</v>
       </c>
       <c r="E11" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -4220,14 +4215,14 @@
         <v>43346</v>
       </c>
       <c r="K11" s="211">
-        <v>1.3417432177078084E-3</v>
+        <v>1.3417526226471553E-3</v>
       </c>
       <c r="N11" s="207"/>
       <c r="Q11" s="206"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D12" s="210" t="str">
-        <v>obj_004e4</v>
+        <v>obj_00412</v>
       </c>
       <c r="E12" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -4254,14 +4249,14 @@
         <v>43711</v>
       </c>
       <c r="K12" s="211">
-        <v>1.6870855078058055E-3</v>
+        <v>1.6870925642561117E-3</v>
       </c>
       <c r="N12" s="207"/>
       <c r="Q12" s="206"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D13" s="210" t="str">
-        <v>obj_004db</v>
+        <v>obj_0040b</v>
       </c>
       <c r="E13" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -4288,14 +4283,14 @@
         <v>44077</v>
       </c>
       <c r="K13" s="211">
-        <v>2.191475090326884E-3</v>
+        <v>2.1914807343777123E-3</v>
       </c>
       <c r="N13" s="207"/>
       <c r="Q13" s="206"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D14" s="210" t="str">
-        <v>obj_004e1</v>
+        <v>obj_0040f</v>
       </c>
       <c r="E14" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
@@ -4322,13 +4317,13 @@
         <v>44442</v>
       </c>
       <c r="K14" s="211">
-        <v>2.787607032024218E-3</v>
+        <v>2.7876117367851903E-3</v>
       </c>
       <c r="Q14" s="206"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D15" s="210" t="str">
-        <v>obj_004e5</v>
+        <v>obj_00408</v>
       </c>
       <c r="E15" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -4355,13 +4350,13 @@
         <v>44809</v>
       </c>
       <c r="K15" s="211">
-        <v>3.4469499130053306E-3</v>
+        <v>3.4469539432428228E-3</v>
       </c>
       <c r="Q15" s="206"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="210" t="str">
-        <v>obj_004e2</v>
+        <v>obj_0040a</v>
       </c>
       <c r="E16" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -4388,14 +4383,14 @@
         <v>45173</v>
       </c>
       <c r="K16" s="211">
-        <v>4.1315536427847131E-3</v>
+        <v>4.131557171444698E-3</v>
       </c>
       <c r="N16" s="208"/>
       <c r="Q16" s="206"/>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D17" s="210" t="str">
-        <v>obj_004df</v>
+        <v>obj_00414</v>
       </c>
       <c r="E17" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -4422,13 +4417,13 @@
         <v>45538</v>
       </c>
       <c r="K17" s="211">
-        <v>4.830562478575157E-3</v>
+        <v>4.8305656153369847E-3</v>
       </c>
       <c r="Q17" s="206"/>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D18" s="210" t="str">
-        <v>obj_004d9</v>
+        <v>obj_0040c</v>
       </c>
       <c r="E18" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -4455,14 +4450,14 @@
         <v>45903</v>
       </c>
       <c r="K18" s="211">
-        <v>5.5582911471923598E-3</v>
+        <v>5.5582939704530388E-3</v>
       </c>
       <c r="N18" s="208"/>
       <c r="Q18" s="206"/>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D19" s="210" t="str">
-        <v>obj_004e0</v>
+        <v>obj_0040e</v>
       </c>
       <c r="E19" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -4489,14 +4484,14 @@
         <v>46633</v>
       </c>
       <c r="K19" s="211">
-        <v>7.0498022301389721E-3</v>
+        <v>7.0498045828108905E-3</v>
       </c>
       <c r="N19" s="208"/>
       <c r="Q19" s="206"/>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D20" s="210" t="str">
-        <v>obj_004de</v>
+        <v>obj_00410</v>
       </c>
       <c r="E20" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -4523,14 +4518,14 @@
         <v>47729</v>
       </c>
       <c r="K20" s="211">
-        <v>9.3152232325838143E-3</v>
+        <v>9.3152251136902481E-3</v>
       </c>
       <c r="N20" s="208"/>
       <c r="Q20" s="206"/>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D21" s="210" t="str">
-        <v>obj_004dc</v>
+        <v>obj_00409</v>
       </c>
       <c r="E21" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -4557,14 +4552,14 @@
         <v>49555</v>
       </c>
       <c r="K21" s="211">
-        <v>1.2344900104360391E-2</v>
+        <v>1.2344901513289833E-2</v>
       </c>
       <c r="N21" s="208"/>
       <c r="Q21" s="206"/>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D22" s="210" t="str">
-        <v>obj_004da</v>
+        <v>obj_00411</v>
       </c>
       <c r="E22" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -4591,13 +4586,13 @@
         <v>51382</v>
       </c>
       <c r="K22" s="211">
-        <v>1.4091312540070591E-2</v>
+        <v>1.4091313665887463E-2</v>
       </c>
       <c r="Q22" s="206"/>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D23" s="210" t="str">
-        <v>obj_004d7</v>
+        <v>obj_0040d</v>
       </c>
       <c r="E23" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -4624,14 +4619,14 @@
         <v>53209</v>
       </c>
       <c r="K23" s="211">
-        <v>1.506890380242549E-2</v>
+        <v>1.5068904739865106E-2</v>
       </c>
       <c r="N23" s="208"/>
       <c r="Q23" s="206"/>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D24" s="210" t="str">
-        <v>obj_004e3</v>
+        <v>obj_00407</v>
       </c>
       <c r="E24" s="210" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -4658,7 +4653,7 @@
         <v>56860</v>
       </c>
       <c r="K24" s="211">
-        <v>1.6560818601564855E-2</v>
+        <v>1.6560819302701736E-2</v>
       </c>
       <c r="Q24" s="206"/>
     </row>
@@ -8046,22 +8041,23 @@
         <v>55</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="93" t="s">
         <v>107</v>
       </c>
+      <c r="D4" s="93" t="str">
+        <f>_xll.qlIborIndex(,"Libor","1D",0,Currency,Calendar,"mf",TRUE,"actual/360",,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00416#0020</v>
+      </c>
       <c r="E4" s="94" t="str">
-        <f>Currency&amp;B4&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" ref="E4:E10" si="0">Currency&amp;B4&amp;"D"&amp;QuoteSuffix</f>
         <v>JPYOND_Quote</v>
       </c>
       <c r="F4" s="109" t="str">
-        <f>Currency&amp;IF($B4="SW","1W",$B4)&amp;"D"&amp;LCHQuoteSuffix</f>
+        <f t="shared" ref="F4:F10" si="1">Currency&amp;IF($B4="SW","1W",$B4)&amp;"D"&amp;LCHQuoteSuffix</f>
         <v>JPYOND_LCHQuote</v>
       </c>
       <c r="G4" s="95" t="str">
-        <f>_xll.qlFraRateHelper(,IF($F$3,$F4,$E4),"0D",$D4,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00535#0039</v>
+        <f>_xll.qlDepositRateHelper(,F4,D4,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003fd#0023</v>
       </c>
       <c r="H4" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(G4)</f>
@@ -8075,22 +8071,23 @@
         <v>105</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="D5" s="101" t="str">
+        <f>_xll.qlIborIndex(,"Libor","1D",0,Currency,Calendar,"mf",TRUE,"actual/360",,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00417#0007</v>
       </c>
       <c r="E5" s="89" t="str">
-        <f>Currency&amp;B5&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>JPYTND_Quote</v>
       </c>
       <c r="F5" s="111" t="str">
-        <f>Currency&amp;IF($B5="SW","1W",$B5)&amp;"D"&amp;LCHQuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>JPYTND_LCHQuote</v>
       </c>
       <c r="G5" s="102" t="str">
         <f>_xll.qlFraRateHelper(,IF($F$3,$F5,$E5),"1D",$D5,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00536#0018</v>
+        <v>obj_003fe#0012</v>
       </c>
       <c r="H5" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -8111,16 +8108,16 @@
         <v>JPYLiborSW</v>
       </c>
       <c r="E6" s="98" t="str">
-        <f>Currency&amp;B6&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>JPYSWD_Quote</v>
       </c>
       <c r="F6" s="110" t="str">
-        <f>Currency&amp;IF($B6="SW","1W",$B6)&amp;"D"&amp;LCHQuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>JPY1WD_LCHQuote</v>
       </c>
       <c r="G6" s="99" t="str">
         <f>_xll.qlDepositRateHelper(,IF($F$3,F6,E6),D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00537#0007</v>
+        <v>obj_00401#0008</v>
       </c>
       <c r="H6" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(G6)</f>
@@ -8141,16 +8138,16 @@
         <v>JPYLibor1M</v>
       </c>
       <c r="E7" s="98" t="str">
-        <f>Currency&amp;B7&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>JPY1MD_Quote</v>
       </c>
       <c r="F7" s="110" t="str">
-        <f>Currency&amp;IF($B7="SW","1W",$B7)&amp;"D"&amp;LCHQuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>JPY1MD_LCHQuote</v>
       </c>
       <c r="G7" s="99" t="str">
         <f>_xll.qlDepositRateHelper(,IF($F$3,F7,E7),D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00532#0012</v>
+        <v>obj_00406#0010</v>
       </c>
       <c r="H7" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(G7)</f>
@@ -8172,16 +8169,16 @@
         <v>JPYLibor2M</v>
       </c>
       <c r="E8" s="98" t="str">
-        <f>Currency&amp;B8&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>JPY2MD_Quote</v>
       </c>
       <c r="F8" s="110" t="str">
-        <f>Currency&amp;IF($B8="SW","1W",$B8)&amp;"D"&amp;LCHQuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>JPY2MD_LCHQuote</v>
       </c>
       <c r="G8" s="99" t="str">
         <f>_xll.qlDepositRateHelper(,IF($F$3,F8,E8),D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00534#0012</v>
+        <v>obj_00405#0008</v>
       </c>
       <c r="H8" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(G8)</f>
@@ -8203,16 +8200,16 @@
         <v>JPYLibor3M</v>
       </c>
       <c r="E9" s="98" t="str">
-        <f>Currency&amp;B9&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>JPY3MD_Quote</v>
       </c>
       <c r="F9" s="110" t="str">
-        <f>Currency&amp;IF($B9="SW","1W",$B9)&amp;"D"&amp;LCHQuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>JPY3MD_LCHQuote</v>
       </c>
       <c r="G9" s="99" t="str">
         <f>_xll.qlDepositRateHelper(,IF($F$3,F9,E9),D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00538#0005</v>
+        <v>obj_00400#0008</v>
       </c>
       <c r="H9" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(G9)</f>
@@ -8234,16 +8231,16 @@
         <v>JPYLibor6M</v>
       </c>
       <c r="E10" s="89" t="str">
-        <f>Currency&amp;B10&amp;"D"&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>JPY6MD_Quote</v>
       </c>
       <c r="F10" s="111" t="str">
-        <f>Currency&amp;IF($B10="SW","1W",$B10)&amp;"D"&amp;LCHQuoteSuffix</f>
+        <f t="shared" si="1"/>
         <v>JPY6MD_LCHQuote</v>
       </c>
       <c r="G10" s="102" t="str">
         <f>_xll.qlDepositRateHelper(,IF($F$3,F10,E10),D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00533#0015</v>
+        <v>obj_003ff#0008</v>
       </c>
       <c r="H10" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(G10)</f>
@@ -8390,7 +8387,7 @@
       </c>
       <c r="M3" s="79" t="str">
         <f>_xll.qlLibor(,Currency,"6M",,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d6#0005</v>
+        <v>obj_00402#0008</v>
       </c>
       <c r="N3" s="150" t="str">
         <f>_xll.ohRangeRetrieveError(M3)</f>
@@ -8407,7 +8404,7 @@
         <v>69</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="103" t="s">
         <v>45</v>
@@ -8438,7 +8435,7 @@
       </c>
       <c r="M4" s="116" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L4,$K4),B4,$D4,Calendar,$G4,$H4,$I4,$M$3,$J4,C4,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e6#0013</v>
+        <v>obj_00413#0008</v>
       </c>
       <c r="N4" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(M4)</f>
@@ -8455,7 +8452,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="105" t="s">
         <v>45</v>
@@ -8486,7 +8483,7 @@
       </c>
       <c r="M5" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L5,$K5),B5,$D5,Calendar,$G5,$H5,$I5,$M$3,$J5,C5,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00539#0006</v>
+        <v>obj_00403#0008</v>
       </c>
       <c r="N5" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M5)</f>
@@ -8534,7 +8531,7 @@
       </c>
       <c r="M6" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L6,$K6),B6,$D6,Calendar,$G6,$H6,$I6,$M$3,$J6,C6,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0053a#0006</v>
+        <v>obj_00404#0008</v>
       </c>
       <c r="N6" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M6)</f>
@@ -8582,7 +8579,7 @@
       </c>
       <c r="M7" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L7,$K7),B7,$D7,Calendar,$G7,$H7,$I7,$M$3,$J7,C7,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e4#0012</v>
+        <v>obj_00412#0008</v>
       </c>
       <c r="N7" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M7)</f>
@@ -8630,7 +8627,7 @@
       </c>
       <c r="M8" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L8,$K8),B8,$D8,Calendar,$G8,$H8,$I8,$M$3,$J8,C8,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004db#0012</v>
+        <v>obj_0040b#0008</v>
       </c>
       <c r="N8" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M8)</f>
@@ -8678,7 +8675,7 @@
       </c>
       <c r="M9" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L9,$K9),B9,$D9,Calendar,$G9,$H9,$I9,$M$3,$J9,C9,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e1#0012</v>
+        <v>obj_0040f#0008</v>
       </c>
       <c r="N9" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M9)</f>
@@ -8726,7 +8723,7 @@
       </c>
       <c r="M10" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L10,$K10),B10,$D10,Calendar,$G10,$H10,$I10,$M$3,$J10,C10,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e5#0012</v>
+        <v>obj_00408#0008</v>
       </c>
       <c r="N10" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M10)</f>
@@ -8774,7 +8771,7 @@
       </c>
       <c r="M11" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L11,$K11),B11,$D11,Calendar,$G11,$H11,$I11,$M$3,$J11,C11,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e2#0012</v>
+        <v>obj_0040a#0008</v>
       </c>
       <c r="N11" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M11)</f>
@@ -8822,7 +8819,7 @@
       </c>
       <c r="M12" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L12,$K12),B12,$D12,Calendar,$G12,$H12,$I12,$M$3,$J12,C12,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004df#0012</v>
+        <v>obj_00414#0008</v>
       </c>
       <c r="N12" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M12)</f>
@@ -8870,7 +8867,7 @@
       </c>
       <c r="M13" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L13,$K13),B13,$D13,Calendar,$G13,$H13,$I13,$M$3,$J13,C13,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d9#0012</v>
+        <v>obj_0040c#0008</v>
       </c>
       <c r="N13" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M13)</f>
@@ -8918,7 +8915,7 @@
       </c>
       <c r="M14" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L14,$K14),B14,$D14,Calendar,$G14,$H14,$I14,$M$3,$J14,C14,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e0#0012</v>
+        <v>obj_0040e#0008</v>
       </c>
       <c r="N14" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M14)</f>
@@ -8966,7 +8963,7 @@
       </c>
       <c r="M15" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L15,$K15),B15,$D15,Calendar,$G15,$H15,$I15,$M$3,$J15,C15,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004de#0012</v>
+        <v>obj_00410#0008</v>
       </c>
       <c r="N15" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M15)</f>
@@ -9014,7 +9011,7 @@
       </c>
       <c r="M16" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L16,$K16),B16,$D16,Calendar,$G16,$H16,$I16,$M$3,$J16,C16,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004dc#0012</v>
+        <v>obj_00409#0008</v>
       </c>
       <c r="N16" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M16)</f>
@@ -9062,7 +9059,7 @@
       </c>
       <c r="M17" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L17,$K17),B17,$D17,Calendar,$G17,$H17,$I17,$M$3,$J17,C17,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004da#0012</v>
+        <v>obj_00411#0008</v>
       </c>
       <c r="N17" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M17)</f>
@@ -9110,7 +9107,7 @@
       </c>
       <c r="M18" s="117" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L18,$K18),B18,$D18,Calendar,$G18,$H18,$I18,$M$3,$J18,C18,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d7#0012</v>
+        <v>obj_0040d#0008</v>
       </c>
       <c r="N18" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(M18)</f>
@@ -9158,7 +9155,7 @@
       </c>
       <c r="M19" s="118" t="str">
         <f>_xll.qlSwapRateHelper2(,IF($L$3,L19,$K19),B19,$D19,Calendar,$G19,$H19,$I19,$M$3,$J19,C19,,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e3#0012</v>
+        <v>obj_00407#0008</v>
       </c>
       <c r="N19" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(M19)</f>
@@ -9325,7 +9322,7 @@
       </c>
       <c r="G3" s="178"/>
       <c r="H3" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I3" s="180">
         <v>42249</v>
@@ -9339,22 +9336,22 @@
       </c>
       <c r="L3" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I3,$J$2,,,TRUE,Trigger)</f>
-        <v>3.7139981106724392E-4</v>
+        <v>3.7655813904588476E-4</v>
       </c>
       <c r="M3" s="182">
         <f>L3-K3</f>
-        <v>-5.1583280596860862E-6</v>
+        <v>-8.1045250805572566E-14</v>
       </c>
       <c r="N3" s="186">
         <v>0.99999896833439805</v>
       </c>
       <c r="O3" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I3,TRUE,Trigger)</f>
-        <v>0.99999898246678876</v>
+        <v>0.99999896833439772</v>
       </c>
       <c r="P3" s="182">
         <f>N3-O3</f>
-        <v>-1.4132390702137343E-8</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="174"/>
     </row>
@@ -9382,7 +9379,7 @@
       </c>
       <c r="G4" s="178"/>
       <c r="H4" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I4" s="180">
         <v>42255</v>
@@ -9396,22 +9393,22 @@
       </c>
       <c r="L4" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I4,$J$2,,,TRUE,Trigger)</f>
-        <v>4.1853769599677158E-4</v>
+        <v>4.20830286218739E-4</v>
       </c>
       <c r="M4" s="182">
         <f t="shared" ref="M4:M26" si="1">L4-K4</f>
-        <v>-2.2925902288484191E-6</v>
+        <v>-6.8809975078965024E-15</v>
       </c>
       <c r="N4" s="186">
         <v>0.99999192931475001</v>
       </c>
       <c r="O4" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I4,TRUE,Trigger)</f>
-        <v>0.99999197328188005</v>
+        <v>0.99999192931475034</v>
       </c>
       <c r="P4" s="182">
         <f t="shared" ref="P4:P26" si="2">N4-O4</f>
-        <v>-4.3967130047839476E-8</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="174"/>
     </row>
@@ -9439,7 +9436,7 @@
       </c>
       <c r="G5" s="178"/>
       <c r="H5" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I5" s="180">
         <v>42278</v>
@@ -9453,22 +9450,22 @@
       </c>
       <c r="L5" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I5,$J$2,,,TRUE,Trigger)</f>
-        <v>5.4177034832814921E-4</v>
+        <v>5.4220863763387969E-4</v>
       </c>
       <c r="M5" s="182">
         <f t="shared" si="1"/>
-        <v>-4.3828930779078908E-7</v>
+        <v>-2.0603093883742041E-15</v>
       </c>
       <c r="N5" s="186">
         <v>0.99995543589950497</v>
       </c>
       <c r="O5" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I5,TRUE,Trigger)</f>
-        <v>0.99995547192167866</v>
+        <v>0.99995543589950497</v>
       </c>
       <c r="P5" s="182">
         <f t="shared" si="2"/>
-        <v>-3.602217368836591E-8</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="174"/>
     </row>
@@ -9496,7 +9493,7 @@
       </c>
       <c r="G6" s="178"/>
       <c r="H6" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I6" s="180">
         <v>42308</v>
@@ -9510,22 +9507,22 @@
       </c>
       <c r="L6" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I6,$J$2,,,TRUE,Trigger)</f>
-        <v>7.6649401124934775E-4</v>
+        <v>7.6667221679105129E-4</v>
       </c>
       <c r="M6" s="182">
         <f t="shared" si="1"/>
-        <v>6.4627439782277045E-6</v>
+        <v>6.6409495199312458E-6</v>
       </c>
       <c r="N6" s="186">
         <v>0.99987507115758301</v>
       </c>
       <c r="O6" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I6,TRUE,Trigger)</f>
-        <v>0.99987400892199485</v>
+        <v>0.99987397963162428</v>
       </c>
       <c r="P6" s="182">
         <f t="shared" si="2"/>
-        <v>1.0622355881562129E-6</v>
+        <v>1.0915259587296333E-6</v>
       </c>
       <c r="Q6" s="174"/>
     </row>
@@ -9553,7 +9550,7 @@
       </c>
       <c r="G7" s="187"/>
       <c r="H7" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I7" s="180">
         <v>42339</v>
@@ -9567,22 +9564,22 @@
       </c>
       <c r="L7" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I7,$J$2,,,TRUE,Trigger)</f>
-        <v>8.8681367920606755E-4</v>
+        <v>8.8692813263463834E-4</v>
       </c>
       <c r="M7" s="182">
         <f t="shared" si="1"/>
-        <v>1.0900470967750795E-7</v>
+        <v>2.2345813824830012E-7</v>
       </c>
       <c r="N7" s="186">
         <v>0.99977895559726004</v>
       </c>
       <c r="O7" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I7,TRUE,Trigger)</f>
-        <v>0.99977892842675031</v>
+        <v>0.99977889989809465</v>
       </c>
       <c r="P7" s="182">
         <f t="shared" si="2"/>
-        <v>2.7170509731000436E-8</v>
+        <v>5.569916539105435E-8</v>
       </c>
       <c r="Q7" s="174"/>
     </row>
@@ -9610,7 +9607,7 @@
       </c>
       <c r="G8" s="178"/>
       <c r="H8" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" s="180">
         <v>42430</v>
@@ -9624,22 +9621,22 @@
       </c>
       <c r="L8" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I8,$J$2,,,TRUE,Trigger)</f>
-        <v>1.3066766399185243E-3</v>
+        <v>1.3067339144810064E-3</v>
       </c>
       <c r="M8" s="182">
         <f t="shared" si="1"/>
-        <v>-5.7274563905604023E-8</v>
+        <v>-1.4235574524734673E-15</v>
       </c>
       <c r="N8" s="186">
         <v>0.99934863531935503</v>
       </c>
       <c r="O8" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I8,TRUE,Trigger)</f>
-        <v>0.99934866385957699</v>
+        <v>0.99934863531935569</v>
       </c>
       <c r="P8" s="182">
         <f t="shared" si="2"/>
-        <v>-2.8540221963524459E-8</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="174"/>
     </row>
@@ -9667,7 +9664,7 @@
       </c>
       <c r="G9" s="178"/>
       <c r="H9" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" s="180">
         <v>42521</v>
@@ -9681,22 +9678,22 @@
       </c>
       <c r="L9" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I9,$J$2,,,TRUE,Trigger)</f>
-        <v>1.2776121693568749E-3</v>
+        <v>1.2776547513242526E-3</v>
       </c>
       <c r="M9" s="182">
         <f t="shared" si="1"/>
-        <v>-4.2598619145149674E-8</v>
+        <v>-1.6651767421535513E-11</v>
       </c>
       <c r="N9" s="186">
         <v>0.99904484069736299</v>
       </c>
       <c r="O9" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I9,TRUE,Trigger)</f>
-        <v>0.99904487252836338</v>
+        <v>0.99904484070980537</v>
       </c>
       <c r="P9" s="182">
         <f t="shared" si="2"/>
-        <v>-3.183100039105824E-8</v>
+        <v>-1.2442380459276592E-11</v>
       </c>
       <c r="Q9" s="174"/>
     </row>
@@ -9724,7 +9721,7 @@
       </c>
       <c r="G10" s="178"/>
       <c r="H10" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I10" s="180">
         <v>42613</v>
@@ -9738,22 +9735,22 @@
       </c>
       <c r="L10" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I10,$J$2,,,TRUE,Trigger)</f>
-        <v>1.2379752591945555E-3</v>
+        <v>1.2380038997350229E-3</v>
       </c>
       <c r="M10" s="182">
         <f t="shared" si="1"/>
-        <v>-2.8674404294569411E-8</v>
+        <v>-3.3863827107044608E-11</v>
       </c>
       <c r="N10" s="186">
         <v>0.99876276207713</v>
       </c>
       <c r="O10" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I10,TRUE,Trigger)</f>
-        <v>0.99876279071605778</v>
+        <v>0.99876276211095216</v>
       </c>
       <c r="P10" s="182">
         <f t="shared" si="2"/>
-        <v>-2.8638927784818691E-8</v>
+        <v>-3.3822167289088156E-11</v>
       </c>
       <c r="Q10" s="174"/>
     </row>
@@ -9781,7 +9778,7 @@
       </c>
       <c r="G11" s="178"/>
       <c r="H11" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I11" s="180">
         <v>42795</v>
@@ -9795,22 +9792,22 @@
       </c>
       <c r="L11" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I11,$J$2,,,TRUE,Trigger)</f>
-        <v>1.2195669040745427E-3</v>
+        <v>1.2195880761264443E-3</v>
       </c>
       <c r="M11" s="182">
         <f t="shared" si="1"/>
-        <v>1.0819450342808637E-8</v>
+        <v>3.1991502244402628E-8</v>
       </c>
       <c r="N11" s="186">
         <v>0.99817400565773295</v>
       </c>
       <c r="O11" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I11,TRUE,Trigger)</f>
-        <v>0.99817398947298641</v>
+        <v>0.99817395780184959</v>
       </c>
       <c r="P11" s="182">
         <f t="shared" si="2"/>
-        <v>1.6184746542968753E-8</v>
+        <v>4.785588336719826E-8</v>
       </c>
       <c r="Q11" s="174"/>
     </row>
@@ -9838,7 +9835,7 @@
       </c>
       <c r="G12" s="178"/>
       <c r="H12" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I12" s="180">
         <v>42978</v>
@@ -9852,22 +9849,22 @@
       </c>
       <c r="L12" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I12,$J$2,,,TRUE,Trigger)</f>
-        <v>1.2027617398641102E-3</v>
+        <v>1.2027759736287817E-3</v>
       </c>
       <c r="M12" s="182">
         <f t="shared" si="1"/>
-        <v>5.0869676290104041E-8</v>
+        <v>6.5103440961573195E-8</v>
       </c>
       <c r="N12" s="186">
         <v>0.99759746896824297</v>
       </c>
       <c r="O12" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I12,TRUE,Trigger)</f>
-        <v>0.99759736747332783</v>
+        <v>0.99759733907419579</v>
       </c>
       <c r="P12" s="182">
         <f t="shared" si="2"/>
-        <v>1.0149491513899989E-7</v>
+        <v>1.2989404718499742E-7</v>
       </c>
       <c r="Q12" s="174"/>
     </row>
@@ -9895,7 +9892,7 @@
       </c>
       <c r="G13" s="178"/>
       <c r="H13" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I13" s="180">
         <v>43343</v>
@@ -9909,22 +9906,22 @@
       </c>
       <c r="L13" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I13,$J$2,,,TRUE,Trigger)</f>
-        <v>1.340594738555291E-3</v>
+        <v>1.340604182042711E-3</v>
       </c>
       <c r="M13" s="182">
         <f t="shared" si="1"/>
-        <v>-1.1995167175289125E-6</v>
+        <v>-1.1900732301089144E-6</v>
       </c>
       <c r="N13" s="186">
         <v>0.99598270822729795</v>
       </c>
       <c r="O13" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I13,TRUE,Trigger)</f>
-        <v>0.99598629232747371</v>
+        <v>0.995986264110722</v>
       </c>
       <c r="P13" s="182">
         <f t="shared" si="2"/>
-        <v>-3.5841001757574986E-6</v>
+        <v>-3.5558834240445591E-6</v>
       </c>
       <c r="Q13" s="174"/>
     </row>
@@ -9952,7 +9949,7 @@
       </c>
       <c r="G14" s="178"/>
       <c r="H14" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I14" s="180">
         <v>43708</v>
@@ -9966,22 +9963,22 @@
       </c>
       <c r="L14" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I14,$J$2,,,TRUE,Trigger)</f>
-        <v>1.6842470780241759E-3</v>
+        <v>1.6842541537771538E-3</v>
       </c>
       <c r="M14" s="182">
         <f t="shared" si="1"/>
-        <v>-1.4565645308341289E-6</v>
+        <v>-1.4494887778562348E-6</v>
       </c>
       <c r="N14" s="186">
         <v>0.99327986719566397</v>
       </c>
       <c r="O14" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I14,TRUE,Trigger)</f>
-        <v>0.993285654317418</v>
+        <v>0.99328562620444272</v>
       </c>
       <c r="P14" s="182">
         <f t="shared" si="2"/>
-        <v>-5.7871217540306219E-6</v>
+        <v>-5.7590087787495747E-6</v>
       </c>
       <c r="Q14" s="174"/>
     </row>
@@ -10009,7 +10006,7 @@
       </c>
       <c r="G15" s="178"/>
       <c r="H15" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I15" s="180">
         <v>44073</v>
@@ -10023,22 +10020,22 @@
       </c>
       <c r="L15" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I15,$J$2,,,TRUE,Trigger)</f>
-        <v>2.1859626358731151E-3</v>
+        <v>2.185968295360015E-3</v>
       </c>
       <c r="M15" s="182">
         <f t="shared" si="1"/>
-        <v>-1.1714632462047486E-6</v>
+        <v>-1.1658037593047926E-6</v>
       </c>
       <c r="N15" s="186">
         <v>0.98912390657947802</v>
       </c>
       <c r="O15" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I15,TRUE,Trigger)</f>
-        <v>0.9891297002079581</v>
+        <v>0.98912967221812564</v>
       </c>
       <c r="P15" s="182">
         <f t="shared" si="2"/>
-        <v>-5.7936284800774729E-6</v>
+        <v>-5.7656386476256927E-6</v>
       </c>
       <c r="Q15" s="174"/>
     </row>
@@ -10066,7 +10063,7 @@
       </c>
       <c r="G16" s="178"/>
       <c r="H16" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" s="180">
         <v>44438</v>
@@ -10080,22 +10077,22 @@
       </c>
       <c r="L16" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I16,$J$2,,,TRUE,Trigger)</f>
-        <v>2.7810740792384883E-3</v>
+        <v>2.7810787942930504E-3</v>
       </c>
       <c r="M16" s="182">
         <f t="shared" si="1"/>
-        <v>-9.7759219540175316E-7</v>
+        <v>-9.728771408396876E-7</v>
       </c>
       <c r="N16" s="186">
         <v>0.98344623463052705</v>
       </c>
       <c r="O16" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I16,TRUE,Trigger)</f>
-        <v>0.98345200310362557</v>
+        <v>0.9834519752814469</v>
       </c>
       <c r="P16" s="182">
         <f t="shared" si="2"/>
-        <v>-5.768473098521909E-6</v>
+        <v>-5.7406509198498767E-6</v>
       </c>
       <c r="Q16" s="174"/>
     </row>
@@ -10123,7 +10120,7 @@
       </c>
       <c r="G17" s="178"/>
       <c r="H17" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I17" s="180">
         <v>44803</v>
@@ -10137,22 +10134,22 @@
       </c>
       <c r="L17" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I17,$J$2,,,TRUE,Trigger)</f>
-        <v>3.4361704653598627E-3</v>
+        <v>3.4361745066249982E-3</v>
       </c>
       <c r="M17" s="182">
         <f t="shared" si="1"/>
-        <v>-8.3942827408707565E-7</v>
+        <v>-8.3538700895160675E-7</v>
       </c>
       <c r="N17" s="186">
         <v>0.97622804299112298</v>
       </c>
       <c r="O17" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I17,TRUE,Trigger)</f>
-        <v>0.97623377932192479</v>
+        <v>0.97623375170538851</v>
       </c>
       <c r="P17" s="182">
         <f t="shared" si="2"/>
-        <v>-5.7363308018087977E-6</v>
+        <v>-5.7087142655287693E-6</v>
       </c>
       <c r="Q17" s="174"/>
     </row>
@@ -10180,7 +10177,7 @@
       </c>
       <c r="G18" s="178"/>
       <c r="H18" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I18" s="180">
         <v>45168</v>
@@ -10194,22 +10191,22 @@
       </c>
       <c r="L18" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I18,$J$2,,,TRUE,Trigger)</f>
-        <v>4.1221497453976207E-3</v>
+        <v>4.1221532809474328E-3</v>
       </c>
       <c r="M18" s="182">
         <f t="shared" si="1"/>
-        <v>-1.096775345619215E-6</v>
+        <v>-1.0932397958070966E-6</v>
       </c>
       <c r="N18" s="186">
         <v>0.96755213215458302</v>
       </c>
       <c r="O18" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I18,TRUE,Trigger)</f>
-        <v>0.96756062169042101</v>
+        <v>0.96756059432355135</v>
       </c>
       <c r="P18" s="182">
         <f t="shared" si="2"/>
-        <v>-8.4895358379855068E-6</v>
+        <v>-8.4621689683261891E-6</v>
       </c>
       <c r="Q18" s="174"/>
     </row>
@@ -10237,7 +10234,7 @@
       </c>
       <c r="G19" s="178"/>
       <c r="H19" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I19" s="180">
         <v>45533</v>
@@ -10251,22 +10248,22 @@
       </c>
       <c r="L19" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I19,$J$2,,,TRUE,Trigger)</f>
-        <v>4.8209870150711818E-3</v>
+        <v>4.8209901572014661E-3</v>
       </c>
       <c r="M19" s="182">
         <f t="shared" si="1"/>
-        <v>-1.1742131477785606E-6</v>
+        <v>-1.1710710174943004E-6</v>
       </c>
       <c r="N19" s="186">
         <v>0.95752882776520198</v>
       </c>
       <c r="O19" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I19,TRUE,Trigger)</f>
-        <v>0.95753894690512165</v>
+        <v>0.9575389198267128</v>
       </c>
       <c r="P19" s="182">
         <f t="shared" si="2"/>
-        <v>-1.0119139919662068E-5</v>
+        <v>-1.0092061510813544E-5</v>
       </c>
       <c r="Q19" s="174"/>
     </row>
@@ -10294,7 +10291,7 @@
       </c>
       <c r="G20" s="178"/>
       <c r="H20" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I20" s="180">
         <v>45898</v>
@@ -10308,22 +10305,22 @@
       </c>
       <c r="L20" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I20,$J$2,,,TRUE,Trigger)</f>
-        <v>5.5483222613208786E-3</v>
+        <v>5.5483250888761129E-3</v>
       </c>
       <c r="M20" s="182">
         <f t="shared" si="1"/>
-        <v>-1.0632582387809855E-6</v>
+        <v>-1.060430683546762E-6</v>
       </c>
       <c r="N20" s="186">
         <v>0.94601783674714301</v>
       </c>
       <c r="O20" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I20,TRUE,Trigger)</f>
-        <v>0.94602789541320764</v>
+        <v>0.94602786866374688</v>
       </c>
       <c r="P20" s="182">
         <f t="shared" si="2"/>
-        <v>-1.0058666064627353E-5</v>
+        <v>-1.0031916603869817E-5</v>
       </c>
       <c r="Q20" s="174"/>
     </row>
@@ -10351,7 +10348,7 @@
       </c>
       <c r="G21" s="178"/>
       <c r="H21" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I21" s="180">
         <v>46628</v>
@@ -10365,22 +10362,22 @@
       </c>
       <c r="L21" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I21,$J$2,,,TRUE,Trigger)</f>
-        <v>7.0395864008037214E-3</v>
+        <v>7.0395887566988514E-3</v>
       </c>
       <c r="M21" s="182">
         <f t="shared" si="1"/>
-        <v>-8.9274363917861421E-7</v>
+        <v>-8.90387744048593E-7</v>
       </c>
       <c r="N21" s="186">
         <v>0.91898475106130495</v>
       </c>
       <c r="O21" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I21,TRUE,Trigger)</f>
-        <v>0.91899459612753198</v>
+        <v>0.91899457014687369</v>
       </c>
       <c r="P21" s="182">
         <f t="shared" si="2"/>
-        <v>-9.8450662270321843E-6</v>
+        <v>-9.8190855687407819E-6</v>
       </c>
       <c r="Q21" s="174"/>
     </row>
@@ -10408,7 +10405,7 @@
       </c>
       <c r="G22" s="178"/>
       <c r="H22" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I22" s="180">
         <v>47723</v>
@@ -10422,22 +10419,22 @@
       </c>
       <c r="L22" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I22,$J$2,,,TRUE,Trigger)</f>
-        <v>9.3028212927894084E-3</v>
+        <v>9.3028231764774039E-3</v>
       </c>
       <c r="M22" s="182">
         <f t="shared" si="1"/>
-        <v>-5.7857253694081068E-7</v>
+        <v>-5.7668884894529482E-7</v>
       </c>
       <c r="N22" s="186">
         <v>0.86974866664834505</v>
       </c>
       <c r="O22" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I22,TRUE,Trigger)</f>
-        <v>0.86975621487148747</v>
+        <v>0.86975619029624773</v>
       </c>
       <c r="P22" s="182">
         <f t="shared" si="2"/>
-        <v>-7.5482231424173207E-6</v>
+        <v>-7.5236479026852265E-6</v>
       </c>
       <c r="Q22" s="174"/>
     </row>
@@ -10465,7 +10462,7 @@
       </c>
       <c r="G23" s="178"/>
       <c r="H23" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I23" s="180">
         <v>49548</v>
@@ -10479,22 +10476,22 @@
       </c>
       <c r="L23" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I23,$J$2,,,TRUE,Trigger)</f>
-        <v>1.2333285789955985E-2</v>
+        <v>1.2333287200695523E-2</v>
       </c>
       <c r="M23" s="182">
         <f t="shared" si="1"/>
-        <v>6.2983980308496668E-7</v>
+        <v>6.3125054262230806E-7</v>
       </c>
       <c r="N23" s="186">
         <v>0.781411703395269</v>
       </c>
       <c r="O23" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I23,TRUE,Trigger)</f>
-        <v>0.78140186017339774</v>
+        <v>0.78140183812630803</v>
       </c>
       <c r="P23" s="182">
         <f t="shared" si="2"/>
-        <v>9.8432218712529718E-6</v>
+        <v>9.8652689609624034E-6</v>
       </c>
       <c r="Q23" s="174"/>
     </row>
@@ -10522,7 +10519,7 @@
       </c>
       <c r="G24" s="178"/>
       <c r="H24" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I24" s="180">
         <v>51373</v>
@@ -10536,22 +10533,22 @@
       </c>
       <c r="L24" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I24,$J$2,,,TRUE,Trigger)</f>
-        <v>1.4082709523145911E-2</v>
+        <v>1.4082710650357426E-2</v>
       </c>
       <c r="M24" s="182">
         <f t="shared" si="1"/>
-        <v>1.2803945814102852E-6</v>
+        <v>1.2815217929253858E-6</v>
       </c>
       <c r="N24" s="186">
         <v>0.70325499548242598</v>
       </c>
       <c r="O24" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I24,TRUE,Trigger)</f>
-        <v>0.70323248474557254</v>
+        <v>0.70323246492827896</v>
       </c>
       <c r="P24" s="182">
         <f t="shared" si="2"/>
-        <v>2.2510736853442737E-5</v>
+        <v>2.2530554147026649E-5</v>
       </c>
       <c r="Q24" s="174"/>
     </row>
@@ -10579,7 +10576,7 @@
       </c>
       <c r="G25" s="178"/>
       <c r="H25" s="183" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I25" s="180">
         <v>53198</v>
@@ -10593,22 +10590,22 @@
       </c>
       <c r="L25" s="185">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I25,$J$2,,,TRUE,Trigger)</f>
-        <v>1.5063017921809233E-2</v>
+        <v>1.506301886038303E-2</v>
       </c>
       <c r="M25" s="182">
         <f t="shared" si="1"/>
-        <v>1.0300730542336239E-6</v>
+        <v>1.0310116280304316E-6</v>
       </c>
       <c r="N25" s="186">
         <v>0.63644349755279395</v>
       </c>
       <c r="O25" s="186">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I25,TRUE,Trigger)</f>
-        <v>0.63642383035775429</v>
+        <v>0.63642381243783264</v>
       </c>
       <c r="P25" s="182">
         <f t="shared" si="2"/>
-        <v>1.9667195039652086E-5</v>
+        <v>1.9685114961309758E-5</v>
       </c>
       <c r="Q25" s="174"/>
     </row>
@@ -10621,7 +10618,7 @@
       <c r="F26" s="198"/>
       <c r="G26" s="178"/>
       <c r="H26" s="188" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I26" s="189">
         <v>56848</v>
@@ -10635,22 +10632,22 @@
       </c>
       <c r="L26" s="191">
         <f>_xll.qlYieldTSZeroRate(YieldCurve,I26,$J$2,,,TRUE,Trigger)</f>
-        <v>1.6555915019644925E-2</v>
+        <v>1.6555915721558477E-2</v>
       </c>
       <c r="M26" s="192">
         <f t="shared" si="1"/>
-        <v>7.1805222922466383E-7</v>
+        <v>7.1875414277625116E-7</v>
       </c>
       <c r="N26" s="193">
         <v>0.51571144826925797</v>
       </c>
       <c r="O26" s="193">
         <f>_xll.qlYieldTSDiscount(YieldCurve,I26,TRUE,Trigger)</f>
-        <v>0.5156966361717733</v>
+        <v>0.51569662169279518</v>
       </c>
       <c r="P26" s="192">
         <f t="shared" si="2"/>
-        <v>1.4812097484662168E-5</v>
+        <v>1.4826576462789731E-5</v>
       </c>
       <c r="Q26" s="174"/>
     </row>
